--- a/inputfile/Book1.xlsx
+++ b/inputfile/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srinivasa\Personal\iiit-b\week6\coderepo\inputfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9BB021-E5DA-42E9-9A61-D3EBF41F4CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB911C8-BA0A-4A62-88BB-8C15F9F60A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD43ABF1-B07C-4CD6-B1A4-68F751510200}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="116">
   <si>
     <t>A34</t>
   </si>
@@ -408,6 +408,39 @@
   </si>
   <si>
     <t>data</t>
+  </si>
+  <si>
+    <t>A75</t>
+  </si>
+  <si>
+    <t>A74</t>
+  </si>
+  <si>
+    <t>A73</t>
+  </si>
+  <si>
+    <t>A72</t>
+  </si>
+  <si>
+    <t>A71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;gt;=7 years </t>
+  </si>
+  <si>
+    <t>4&amp;lt;= &amp;lt;7 years</t>
+  </si>
+  <si>
+    <t>1&amp;lt;= &amp;lt; 4 years</t>
+  </si>
+  <si>
+    <t>&amp;lt;1 years</t>
+  </si>
+  <si>
+    <t>unemployed</t>
+  </si>
+  <si>
+    <t>present employee since</t>
   </si>
 </sst>
 </file>
@@ -787,10 +820,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B43A84-238B-433D-B996-A3784F607C04}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45:D46"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,7 +867,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D48" si="0">_xlfn.CONCAT("&lt;option value=""",B3,"""&gt;",C3,"&lt;/option&gt;")</f>
+        <f t="shared" ref="D3:D53" si="0">_xlfn.CONCAT("&lt;option value=""",B3,"""&gt;",C3,"&lt;/option&gt;")</f>
         <v>&lt;option value="A33"&gt;delay in paying off&lt;/option&gt;</v>
       </c>
     </row>
@@ -1123,7 +1156,7 @@
         <v>&lt;option value="A64 "&gt;&amp;gt;= 1000 DM&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1138,7 +1171,7 @@
         <v>&lt;option value="A95"&gt;female:singe&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1153,7 +1186,7 @@
         <v>&lt;option value="A94"&gt;male:married/widowed&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1168,7 +1201,7 @@
         <v>&lt;option value="A93"&gt;male:single&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1183,7 +1216,7 @@
         <v>&lt;option value="A92"&gt;female:divorced/separated/married&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -1453,7 +1486,7 @@
         <v>&lt;option value="A171"&gt;unemployed/ unskilled  - non-resident&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>98</v>
       </c>
@@ -1468,7 +1501,7 @@
         <v>&lt;option value="A192"&gt;yes&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>98</v>
       </c>
@@ -1513,11 +1546,86 @@
         <v>&lt;option value="A202"&gt;No&lt;/option&gt;</v>
       </c>
     </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="A75"&gt;&amp;gt;=7 years &lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="A74"&gt;4&amp;lt;= &amp;lt;7 years&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="A73"&gt;1&amp;lt;= &amp;lt; 4 years&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="A72"&gt;&amp;lt;1 years&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="A71"&gt;unemployed&lt;/option&gt;</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E48" xr:uid="{53B43A84-238B-433D-B996-A3784F607C04}">
+  <autoFilter ref="A1:E53" xr:uid="{53B43A84-238B-433D-B996-A3784F607C04}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Telephone"/>
+        <filter val="Personal_status_and_sex"/>
       </filters>
     </filterColumn>
   </autoFilter>
